--- a/Miriam/Assignment 1/Question1centroids.xlsx
+++ b/Miriam/Assignment 1/Question1centroids.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2737F91-C2CA-49BB-BC00-D47BC7858F45}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69475A11-0F69-48C9-AB4F-F8838F729476}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+  <si>
+    <t>centroid_2_1</t>
+  </si>
+  <si>
+    <t>centroid_2_2</t>
+  </si>
+  <si>
+    <t>centroid_2_3</t>
+  </si>
+  <si>
+    <t>centroid_3_1</t>
+  </si>
+  <si>
+    <t>centroid_3_2</t>
+  </si>
+  <si>
+    <t>centroid_3_3</t>
+  </si>
   <si>
     <t>centroid_1</t>
   </si>
@@ -349,55 +369,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="A1:C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>7000</v>
+        <v>-10000</v>
       </c>
       <c r="B2">
-        <v>13000</v>
+        <v>8752.9411764705874</v>
       </c>
       <c r="C2">
-        <v>15000</v>
+        <v>27704</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>0.29309000000000002</v>
+        <v>-10000</v>
       </c>
       <c r="B3">
-        <v>0.515625</v>
+        <v>7.7798446470588241</v>
       </c>
       <c r="C3">
-        <v>28.439640000000001</v>
+        <v>13.629703999999998</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>6</v>
+        <v>-10000</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>22.823529411764707</v>
       </c>
       <c r="C4">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -407,57 +432,225 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E275B08A-0BD2-46CD-81FA-80185B81FC0B}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="11.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>-10000</v>
+      </c>
+      <c r="B2">
+        <v>8112.5</v>
+      </c>
+      <c r="C2">
+        <v>25528</v>
+      </c>
+      <c r="D2">
+        <v>7000</v>
+      </c>
+      <c r="E2">
+        <v>0.29309000000000002</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>23112</v>
+      </c>
+      <c r="H2">
+        <v>5.3200000000000003E-4</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>-10000</v>
+      </c>
+      <c r="B3">
+        <v>7.0297018125000008</v>
+      </c>
+      <c r="C3">
+        <v>15.1678105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>-10000</v>
+      </c>
+      <c r="B4">
+        <v>21.4375</v>
+      </c>
+      <c r="C4">
+        <v>44.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4575B98-A07B-44D4-9239-8461B4C5F220}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="11.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>-10000</v>
+      </c>
+      <c r="B2">
+        <v>7520</v>
+      </c>
+      <c r="C2">
+        <v>23822.400000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>-10000</v>
+      </c>
+      <c r="B3">
+        <v>7.4974319333333339</v>
+      </c>
+      <c r="C3">
+        <v>12.1369984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>-10000</v>
+      </c>
+      <c r="B4">
+        <v>22.066666666666666</v>
+      </c>
+      <c r="C4">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191EBCB7-25C3-4EF6-ACF5-C4DCE29B64C7}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>7000</v>
+        <v>-10000</v>
       </c>
       <c r="B2">
-        <v>13000</v>
+        <v>7520</v>
       </c>
       <c r="C2">
-        <v>15000</v>
+        <v>23822.400000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>0.29309000000000002</v>
+        <v>-10000</v>
       </c>
       <c r="B3">
-        <v>0.515625</v>
+        <v>7.4974319333333339</v>
       </c>
       <c r="C3">
-        <v>28.439640000000001</v>
+        <v>12.1369984</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>6</v>
+        <v>-10000</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>22.066666666666666</v>
       </c>
       <c r="C4">
-        <v>74</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Miriam/Assignment 1/Question1centroids.xlsx
+++ b/Miriam/Assignment 1/Question1centroids.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69475A11-0F69-48C9-AB4F-F8838F729476}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12A23393-2275-4A58-B01F-7FDC41F520F3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
